--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-9.031172149254262</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.38629675811733</v>
+        <v>-10.37594074656952</v>
       </c>
       <c r="F2" t="n">
-        <v>2.996668298997904</v>
+        <v>2.925367617721864</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.19206536097791</v>
+        <v>-16.04340226221011</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.862349775769159</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.89219643222446</v>
+        <v>-10.88095014408342</v>
       </c>
       <c r="F3" t="n">
-        <v>2.852260198653666</v>
+        <v>2.785227608104028</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.73320633098109</v>
+        <v>-15.60477084010376</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.594484570661793</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.14900195246492</v>
+        <v>-11.15447453505276</v>
       </c>
       <c r="F4" t="n">
-        <v>2.974568491801071</v>
+        <v>2.917302759171361</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.187597702355</v>
+        <v>-15.07321025242684</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.270019984386487</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.67692287995184</v>
+        <v>-11.68674210708313</v>
       </c>
       <c r="F5" t="n">
-        <v>3.018715736983371</v>
+        <v>2.974018615081718</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.53905738878726</v>
+        <v>-14.43735638031273</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.900646687111443</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.42868290912375</v>
+        <v>-12.43149775423472</v>
       </c>
       <c r="F6" t="n">
-        <v>3.040082375221068</v>
+        <v>2.995699468587616</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.04068578881411</v>
+        <v>-13.93764936544973</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.518190200047377</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.70118610047144</v>
+        <v>-12.72439875340982</v>
       </c>
       <c r="F7" t="n">
-        <v>3.275455795709619</v>
+        <v>3.231884611852355</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.37053008325468</v>
+        <v>-13.26189015427404</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.136472248186164</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.49918814328032</v>
+        <v>-13.51436212227388</v>
       </c>
       <c r="F8" t="n">
-        <v>3.41973297302544</v>
+        <v>3.37558572784314</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.07446074679189</v>
+        <v>-12.95716680563286</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.768217393898016</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.13542169217684</v>
+        <v>-14.14615738050706</v>
       </c>
       <c r="F9" t="n">
-        <v>3.582575035770829</v>
+        <v>3.535076161061047</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.46276217342076</v>
+        <v>-12.33096196071311</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.418880095310285</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.11998905048033</v>
+        <v>-15.13597475225007</v>
       </c>
       <c r="F10" t="n">
-        <v>3.754869741167944</v>
+        <v>3.713288587342622</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.11893211619135</v>
+        <v>-11.99325910121362</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.083829560202772</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.9931016346922</v>
+        <v>-16.00921825949036</v>
       </c>
       <c r="F11" t="n">
-        <v>3.924860201264916</v>
+        <v>3.884326431666932</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.61775876341008</v>
+        <v>-11.49480894742343</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.766196649801564</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.78569655642745</v>
+        <v>-16.81574339144921</v>
       </c>
       <c r="F12" t="n">
-        <v>3.956176989662324</v>
+        <v>3.915826512304124</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.37747572935588</v>
+        <v>-11.25913440396952</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.452405000343242</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40083840544595</v>
+        <v>-17.42412961220138</v>
       </c>
       <c r="F13" t="n">
-        <v>3.825960945598517</v>
+        <v>3.780164070258159</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.7850883026763</v>
+        <v>-10.67047828359983</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.147139196846442</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.345984839893</v>
+        <v>-18.37134463049742</v>
       </c>
       <c r="F14" t="n">
-        <v>4.07288177719347</v>
+        <v>4.020774411883401</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.223035741681</v>
+        <v>-10.09950986436932</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.837095573601609</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.17848510068983</v>
+        <v>-19.20841410498602</v>
       </c>
       <c r="F15" t="n">
-        <v>4.115143730766563</v>
+        <v>4.060810673973399</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.725698433632353</v>
+        <v>-9.609059107615415</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.525348251653003</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.20293161344921</v>
+        <v>-20.22135248354752</v>
       </c>
       <c r="F16" t="n">
-        <v>4.335382449170078</v>
+        <v>4.271125426822887</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.196573014283993</v>
+        <v>-9.082473595018351</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.203099174973389</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.18478886506446</v>
+        <v>-21.19361307717978</v>
       </c>
       <c r="F17" t="n">
-        <v>4.513594875451654</v>
+        <v>4.461801725409785</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.838956762162246</v>
+        <v>-8.721283144220811</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.872089616884824</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.96289060755392</v>
+        <v>-21.96198723865784</v>
       </c>
       <c r="F18" t="n">
-        <v>4.793141725728188</v>
+        <v>4.737577992467903</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.3184329857809</v>
+        <v>-8.21466339345738</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.529710486486535</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.65860248826041</v>
+        <v>-22.66571160870346</v>
       </c>
       <c r="F19" t="n">
-        <v>4.978450180149979</v>
+        <v>4.92513832297847</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.788417289839304</v>
+        <v>-7.670416364326827</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.178697385300199</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.38932318676566</v>
+        <v>-23.38590609572397</v>
       </c>
       <c r="F20" t="n">
-        <v>5.058417965907242</v>
+        <v>5.01395650545674</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.089733456387751</v>
+        <v>-6.967189501789194</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.825056946675613</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.07422082532488</v>
+        <v>-24.05917776935974</v>
       </c>
       <c r="F21" t="n">
-        <v>5.090834507743356</v>
+        <v>5.051033907104508</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.922125795407974</v>
+        <v>-6.809178498792403</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.474538740649159</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.79192777480546</v>
+        <v>-24.78104807114399</v>
       </c>
       <c r="F22" t="n">
-        <v>5.404657006859529</v>
+        <v>5.369229235369819</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.767584252664239</v>
+        <v>-6.663618275798092</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.139183122125702</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.33418477390407</v>
+        <v>-25.31746590317519</v>
       </c>
       <c r="F23" t="n">
-        <v>5.374387602689459</v>
+        <v>5.341683030190827</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.420873888809649</v>
+        <v>-6.328088738570337</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.822561345482102</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.769294366546</v>
+        <v>-25.75113534250452</v>
       </c>
       <c r="F24" t="n">
-        <v>5.278159176802772</v>
+        <v>5.248937156860039</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.101382422563008</v>
+        <v>-6.020197052641465</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.535811249654463</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.12070486712076</v>
+        <v>-26.09584258402433</v>
       </c>
       <c r="F25" t="n">
-        <v>5.382269169000178</v>
+        <v>5.357419978206582</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.804540640232553</v>
+        <v>-5.731315390438779</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.278584101970959</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.45683665027924</v>
+        <v>-26.41847620295298</v>
       </c>
       <c r="F26" t="n">
-        <v>5.369045943130034</v>
+        <v>5.347705489498021</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.552382887500909</v>
+        <v>-5.48487897404897</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.056963071212401</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.20353986720037</v>
+        <v>-26.1745273241031</v>
       </c>
       <c r="F27" t="n">
-        <v>5.479623532931253</v>
+        <v>5.456476341507082</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.102125500471108</v>
+        <v>-5.035354755978305</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.8683715038614905</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.39179408976154</v>
+        <v>-26.35592117997522</v>
       </c>
       <c r="F28" t="n">
-        <v>5.284574405195218</v>
+        <v>5.259463368344788</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.911344463461475</v>
+        <v>-4.857050683576838</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.7144820447789998</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.5133037524356</v>
+        <v>-26.48175130258704</v>
       </c>
       <c r="F29" t="n">
-        <v>5.32987377302759</v>
+        <v>5.304893659205577</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.869462186670794</v>
+        <v>-4.812811792274645</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.5930129605876369</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.5824572960456</v>
+        <v>-26.53841478928603</v>
       </c>
       <c r="F30" t="n">
-        <v>5.320761530249749</v>
+        <v>5.293948494029894</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.857692206416082</v>
+        <v>-4.808308040097091</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.5035337791533601</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21680236997903</v>
+        <v>-26.17023304877101</v>
       </c>
       <c r="F31" t="n">
-        <v>5.209372217672343</v>
+        <v>5.175489337917957</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.074828049046109</v>
+        <v>-5.020691376795572</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.4461994943512152</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.90722177698358</v>
+        <v>-25.84736376839121</v>
       </c>
       <c r="F32" t="n">
-        <v>5.247758849604285</v>
+        <v>5.207329818429034</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.153460419913515</v>
+        <v>-5.102204054288158</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.4205188594034827</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.7594751394147</v>
+        <v>-25.69108094936952</v>
       </c>
       <c r="F33" t="n">
-        <v>5.151661346746015</v>
+        <v>5.108273455128534</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.221828425353009</v>
+        <v>-5.169537767803155</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.4296072981764539</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.26567275313332</v>
+        <v>-25.2020965305339</v>
       </c>
       <c r="F34" t="n">
-        <v>5.200233790288819</v>
+        <v>5.162056635202346</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.452554078332748</v>
+        <v>-5.401192974284657</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.4720602423031198</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.92292935703977</v>
+        <v>-24.87036376113024</v>
       </c>
       <c r="F35" t="n">
-        <v>5.03367351353638</v>
+        <v>4.999947741416094</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.572689049208426</v>
+        <v>-5.516601623834472</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5509309285509599</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.41239500772666</v>
+        <v>-24.35677890525501</v>
       </c>
       <c r="F36" t="n">
-        <v>5.226994457297307</v>
+        <v>5.177479367949899</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.597381132367921</v>
+        <v>-5.547774396900621</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6612219303809465</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.87812431336151</v>
+        <v>-23.81779498186683</v>
       </c>
       <c r="F37" t="n">
-        <v>5.186984379812992</v>
+        <v>5.144460580183066</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.662934292696444</v>
+        <v>-5.6275588904181</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8023630641711511</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.2690049236502</v>
+        <v>-23.20988008401697</v>
       </c>
       <c r="F38" t="n">
-        <v>4.990076145073432</v>
+        <v>4.949359083235664</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.706453107342341</v>
+        <v>-5.65873166348425</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.9672258293946944</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.19242804432895</v>
+        <v>-23.12732002229704</v>
       </c>
       <c r="F39" t="n">
-        <v>5.140428150907814</v>
+        <v>5.098140012729039</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.708142014408924</v>
+        <v>-5.656636895029574</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.152702175497225</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.47126472689815</v>
+        <v>-22.40877516543459</v>
       </c>
       <c r="F40" t="n">
-        <v>5.314241563434569</v>
+        <v>5.271036964056873</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.761126564009389</v>
+        <v>-5.705209338572377</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.352348739551551</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.95218110382939</v>
+        <v>-21.89839792375558</v>
       </c>
       <c r="F41" t="n">
-        <v>5.277216530998168</v>
+        <v>5.237677776416155</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.839523273425645</v>
+        <v>-5.787284985087158</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.561652712807509</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.1245904565982</v>
+        <v>-21.07389705999504</v>
       </c>
       <c r="F42" t="n">
-        <v>5.420865277777587</v>
+        <v>5.377870155245358</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.072317510254376</v>
+        <v>-6.018861637751609</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.776737485988288</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.63355054621643</v>
+        <v>-20.58016013522787</v>
       </c>
       <c r="F43" t="n">
-        <v>5.406044790960753</v>
+        <v>5.368155666536797</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.166974859800056</v>
+        <v>-6.122801430012072</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.99312969026769</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.97136805308761</v>
+        <v>-19.92183987143736</v>
       </c>
       <c r="F44" t="n">
-        <v>5.275174131754858</v>
+        <v>5.244904727584788</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.193787896019911</v>
+        <v>-6.144731037271963</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.209729824387545</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.44569900168946</v>
+        <v>-19.39939152653828</v>
       </c>
       <c r="F45" t="n">
-        <v>5.19463028467256</v>
+        <v>5.166508018168533</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.18293437696412</v>
+        <v>-6.140750977208079</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.421719373685423</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.76631322262661</v>
+        <v>-18.72817534444867</v>
       </c>
       <c r="F46" t="n">
-        <v>5.42597127588586</v>
+        <v>5.387558459348235</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.40767684754519</v>
+        <v>-6.347714100530085</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.630123912204561</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.4228890267853</v>
+        <v>-18.37895125844846</v>
       </c>
       <c r="F47" t="n">
-        <v>5.457968864031038</v>
+        <v>5.413088449889601</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.659441831191582</v>
+        <v>-6.588402995972376</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.829586490420939</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.78081631082136</v>
+        <v>-17.74956498393817</v>
       </c>
       <c r="F48" t="n">
-        <v>5.366846436252625</v>
+        <v>5.319085715486008</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.823671678038194</v>
+        <v>-6.747382829379456</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.022854059228975</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.29771033596167</v>
+        <v>-17.26077694964517</v>
       </c>
       <c r="F49" t="n">
-        <v>5.391407596383702</v>
+        <v>5.344327675364856</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.146815896777676</v>
+        <v>-7.065447234616349</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.205191223736303</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66829787684569</v>
+        <v>-16.64704906933357</v>
       </c>
       <c r="F50" t="n">
-        <v>5.25325761679781</v>
+        <v>5.20350686599925</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.363140016631516</v>
+        <v>-7.270302497180837</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.378817049053203</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.88248476798245</v>
+        <v>-15.8642079132154</v>
       </c>
       <c r="F51" t="n">
-        <v>5.182166412367237</v>
+        <v>5.13864759772134</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.430355899420938</v>
+        <v>-7.326821968548568</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.540389654334986</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.39562130220719</v>
+        <v>-15.38531765987075</v>
       </c>
       <c r="F52" t="n">
-        <v>5.087901831906809</v>
+        <v>5.04482815555753</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.682212529187223</v>
+        <v>-7.578613136800644</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.689743963699087</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.81292217963048</v>
+        <v>-14.80326006013329</v>
       </c>
       <c r="F53" t="n">
-        <v>5.024089947856236</v>
+        <v>4.988976391634727</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.945865323813902</v>
+        <v>-7.835012795653007</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.825690110434179</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.08992593980184</v>
+        <v>-14.0911042470576</v>
       </c>
       <c r="F54" t="n">
-        <v>4.858577055331136</v>
+        <v>4.822782699361857</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.243846136491587</v>
+        <v>-8.118081475393966</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.946425039103644</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.54099186625395</v>
+        <v>-13.5484413865709</v>
       </c>
       <c r="F55" t="n">
-        <v>4.941110932445376</v>
+        <v>4.899791624676889</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.560326373084632</v>
+        <v>-8.434103481387551</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.054966345474976</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.21923543161569</v>
+        <v>-13.22747049010314</v>
       </c>
       <c r="F56" t="n">
-        <v>4.839069524096963</v>
+        <v>4.797828770145526</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.589731685267148</v>
+        <v>-8.461558040446651</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.148687028738118</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.90517727104837</v>
+        <v>-12.9180208201361</v>
       </c>
       <c r="F57" t="n">
-        <v>4.765255120675312</v>
+        <v>4.714980677763084</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.943250046599436</v>
+        <v>-8.80622600505793</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.235156939186283</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.41085119265332</v>
+        <v>-12.43336995354109</v>
       </c>
       <c r="F58" t="n">
-        <v>4.661092759266539</v>
+        <v>4.615845760645534</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.375440055707655</v>
+        <v>-9.242828120223811</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.311492900544135</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.10024940003621</v>
+        <v>-12.12130182300571</v>
       </c>
       <c r="F59" t="n">
-        <v>4.650016671062439</v>
+        <v>4.602858196226542</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.734771399501668</v>
+        <v>-9.598467434616458</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.386975570829891</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.77448672072838</v>
+        <v>-11.78706842375928</v>
       </c>
       <c r="F60" t="n">
-        <v>4.554076275838271</v>
+        <v>4.50416841740561</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.80168615932573</v>
+        <v>-9.68139408081595</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.457865560302534</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.62160790044555</v>
+        <v>-11.64026443199501</v>
       </c>
       <c r="F61" t="n">
-        <v>4.409772913916766</v>
+        <v>4.361148101162595</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.20464105618838</v>
+        <v>-10.08166505559604</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.53107262929553</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.57814145501102</v>
+        <v>-11.58644197501267</v>
       </c>
       <c r="F62" t="n">
-        <v>4.301447200204324</v>
+        <v>4.252324879942168</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.38945200310218</v>
+        <v>-10.2706655394192</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.604099244792561</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.34187775792923</v>
+        <v>-11.34229671162016</v>
       </c>
       <c r="F63" t="n">
-        <v>4.393328981547557</v>
+        <v>4.333811372829071</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.61681293425159</v>
+        <v>-10.49362745681379</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.679367310044382</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.30553352524059</v>
+        <v>-11.30071555779484</v>
       </c>
       <c r="F64" t="n">
-        <v>4.283903514396411</v>
+        <v>4.231272456972673</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.84845504843025</v>
+        <v>-10.71234746808767</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.756416108784087</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.39479684601548</v>
+        <v>-11.38797575623494</v>
       </c>
       <c r="F65" t="n">
-        <v>4.293879849161806</v>
+        <v>4.241877222274471</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.684775078303</v>
+        <v>-10.57109461272829</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.833413200427613</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.25408077507261</v>
+        <v>-11.24893550005581</v>
       </c>
       <c r="F66" t="n">
-        <v>4.316241502415474</v>
+        <v>4.264998229092959</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.86073562849579</v>
+        <v>-10.75226589945209</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.913054102199066</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.53965008465634</v>
+        <v>-11.53246241039623</v>
       </c>
       <c r="F67" t="n">
-        <v>4.01469958336484</v>
+        <v>3.963822894521893</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.96933628056791</v>
+        <v>-10.86082727461569</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.989776537007528</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.52832524269825</v>
+        <v>-11.52472485941677</v>
       </c>
       <c r="F68" t="n">
-        <v>4.156986730648719</v>
+        <v>4.096290814674477</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.75830145106213</v>
+        <v>-10.64627061564548</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.069497921960993</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.49918177657256</v>
+        <v>-11.48349719776818</v>
       </c>
       <c r="F69" t="n">
-        <v>4.114908069315411</v>
+        <v>4.061936612017788</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.85989772111392</v>
+        <v>-10.73360936790263</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.143960251674743</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.69559250380414</v>
+        <v>-11.68873213711507</v>
       </c>
       <c r="F70" t="n">
-        <v>3.865185484912328</v>
+        <v>3.813182858024992</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.92733617305165</v>
+        <v>-10.80129657359436</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.221306641914198</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.65611921073634</v>
+        <v>-11.64650946045051</v>
       </c>
       <c r="F71" t="n">
-        <v>3.788255113414346</v>
+        <v>3.729941996557298</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.92672083481809</v>
+        <v>-10.80378411113429</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.29387728709236</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.82068945745683</v>
+        <v>-11.81234966054665</v>
       </c>
       <c r="F72" t="n">
-        <v>3.812606796699956</v>
+        <v>3.760630354418304</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.10748626015381</v>
+        <v>-10.97857944637417</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.369305541874164</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.24059888649951</v>
+        <v>-12.22270170851487</v>
       </c>
       <c r="F73" t="n">
-        <v>3.936931304484987</v>
+        <v>3.874402466112903</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.8760798074263</v>
+        <v>-10.75729334374332</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.442988996971962</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.5612031984877</v>
+        <v>-12.53615762315148</v>
       </c>
       <c r="F74" t="n">
-        <v>3.918235496027002</v>
+        <v>3.862331362892832</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.78257458053069</v>
+        <v>-10.66288474795163</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.518461498623937</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.83483232787978</v>
+        <v>-12.82468579317744</v>
       </c>
       <c r="F75" t="n">
-        <v>3.879665571855277</v>
+        <v>3.820488363010675</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.71496592865602</v>
+        <v>-10.59216012800063</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.595339710814192</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.08943834124282</v>
+        <v>-13.07366211631854</v>
       </c>
       <c r="F76" t="n">
-        <v>3.896737934760888</v>
+        <v>3.830202851719236</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.66130057930778</v>
+        <v>-10.53778779429894</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.673364526822732</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.52182473489367</v>
+        <v>-13.51180912321975</v>
       </c>
       <c r="F77" t="n">
-        <v>3.897340180691607</v>
+        <v>3.840467217147149</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.43870524639275</v>
+        <v>-10.3160041841601</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.757148973200545</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.27467142520144</v>
+        <v>-14.26731355100439</v>
       </c>
       <c r="F78" t="n">
-        <v>3.868641852862544</v>
+        <v>3.81415168843528</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.12680731579431</v>
+        <v>-10.0035563768423</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.842319781121343</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.88966925888868</v>
+        <v>-14.87801710935955</v>
       </c>
       <c r="F79" t="n">
-        <v>4.039077451256134</v>
+        <v>3.968379015910813</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.15194453725043</v>
+        <v>-10.02717489116878</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.937147003797113</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.2704327024346</v>
+        <v>-15.26181796716475</v>
       </c>
       <c r="F80" t="n">
-        <v>4.061858058200738</v>
+        <v>3.998465127841099</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.738044475212099</v>
+        <v>-9.617307258405702</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.032851846140807</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.81406439333159</v>
+        <v>-15.8135014243094</v>
       </c>
       <c r="F81" t="n">
-        <v>4.048372986273759</v>
+        <v>3.987938916356352</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.547551468864986</v>
+        <v>-9.427508144109199</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.138622823485422</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.645111408513</v>
+        <v>-16.64699670012221</v>
       </c>
       <c r="F82" t="n">
-        <v>3.948740561648224</v>
+        <v>3.880241633180313</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.310750987366687</v>
+        <v>-9.18638720267313</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.243392753388305</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.60841686700152</v>
+        <v>-17.6152510490849</v>
       </c>
       <c r="F83" t="n">
-        <v>4.055390460596924</v>
+        <v>3.984089779320884</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.118464335530255</v>
+        <v>-8.996889211341987</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.353065142719772</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.54366552050022</v>
+        <v>-18.54920356460227</v>
       </c>
       <c r="F84" t="n">
-        <v>3.986839162917647</v>
+        <v>3.918052203787218</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.815141863293146</v>
+        <v>-8.689769971280777</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.45821791158462</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.57497239994866</v>
+        <v>-19.58189822815194</v>
       </c>
       <c r="F85" t="n">
-        <v>4.14114504421023</v>
+        <v>4.078904236500665</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.601161265647976</v>
+        <v>-8.482806847958772</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.558985114710512</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.75771794636736</v>
+        <v>-20.76498417444451</v>
       </c>
       <c r="F86" t="n">
-        <v>4.152928116767784</v>
+        <v>4.079585036248434</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.457407780445823</v>
+        <v>-8.337600117141188</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.649968258354031</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.96202651556637</v>
+        <v>-21.9645140531063</v>
       </c>
       <c r="F87" t="n">
-        <v>4.110011548052606</v>
+        <v>4.037794405577644</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.300417977070685</v>
+        <v>-8.180701959885942</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.726322895511873</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.38161182039189</v>
+        <v>-23.383091250613</v>
       </c>
       <c r="F88" t="n">
-        <v>4.323416084372741</v>
+        <v>4.256776262908355</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.214951424119898</v>
+        <v>-8.094764084032853</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.786737127299657</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.89103650731733</v>
+        <v>-24.8837179100288</v>
       </c>
       <c r="F89" t="n">
-        <v>4.19917013040476</v>
+        <v>4.12203028206131</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.946624677378722</v>
+        <v>-7.834004688334194</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.82128409924796</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.54264360310391</v>
+        <v>-26.53213048392201</v>
       </c>
       <c r="F90" t="n">
-        <v>4.304641722097705</v>
+        <v>4.243788698489363</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.125517903408067</v>
+        <v>-8.013199037328899</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.831095832035572</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.22275264217694</v>
+        <v>-28.22336798041049</v>
       </c>
       <c r="F91" t="n">
-        <v>4.479423965034749</v>
+        <v>4.406473653600651</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.83018173590441</v>
+        <v>-7.716108501244451</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.801445114029028</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.20762430679966</v>
+        <v>-30.19754323361153</v>
       </c>
       <c r="F92" t="n">
-        <v>4.361226654979645</v>
+        <v>4.2924658804549</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.023227741305661</v>
+        <v>-7.903721200966386</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.735092506113218</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.05623128344569</v>
+        <v>-32.0423665347363</v>
       </c>
       <c r="F93" t="n">
-        <v>4.275733917423175</v>
+        <v>4.212131510218069</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.923163270686349</v>
+        <v>-7.781792584601391</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.618684090297958</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.053710835705</v>
+        <v>-34.03387599689978</v>
       </c>
       <c r="F94" t="n">
-        <v>4.58547161805273</v>
+        <v>4.508593615766114</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.731832356957364</v>
+        <v>-7.61157955535611</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.458480049671153</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.13591067965312</v>
+        <v>-36.12661514463549</v>
       </c>
       <c r="F95" t="n">
-        <v>4.268716443100009</v>
+        <v>4.203307298102746</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.538760166950429</v>
+        <v>-7.403254832538565</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.249687693220416</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.39404488918834</v>
+        <v>-38.38272004723025</v>
       </c>
       <c r="F96" t="n">
-        <v>4.16458026629692</v>
+        <v>4.092677339090161</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.595004699958485</v>
+        <v>-7.471884684034893</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.003889943067861</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.33441581645204</v>
+        <v>-40.33355172446448</v>
       </c>
       <c r="F97" t="n">
-        <v>3.942011117987577</v>
+        <v>3.880110710151896</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.180122715207028</v>
+        <v>-7.069466571588759</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.727322777909407</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.89720791311423</v>
+        <v>-42.89896228169502</v>
       </c>
       <c r="F98" t="n">
-        <v>3.924467432179664</v>
+        <v>3.863221639486069</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.198661416030911</v>
+        <v>-7.094708531467607</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.438322419336315</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.02722084704033</v>
+        <v>-45.02559740148796</v>
       </c>
       <c r="F99" t="n">
-        <v>3.814649195943265</v>
+        <v>3.764688968299239</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.910028507582219</v>
+        <v>-6.81658874220082</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.151216004038529</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.27841613606945</v>
+        <v>-47.28641553310574</v>
       </c>
       <c r="F100" t="n">
-        <v>3.705328467214853</v>
+        <v>3.657751038688021</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.709218766595824</v>
+        <v>-6.632366948914893</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.891169441701861</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.66778758929014</v>
+        <v>-49.66367660619783</v>
       </c>
       <c r="F101" t="n">
-        <v>3.407007254663283</v>
+        <v>3.368280222857457</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.706744321358738</v>
+        <v>-6.645092667277051</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.669034453756861</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.07522642043241</v>
+        <v>-52.0708928681918</v>
       </c>
       <c r="F102" t="n">
-        <v>2.996668298997904</v>
+        <v>2.952678161449705</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.74832547518406</v>
+        <v>-6.669352704442768</v>
       </c>
     </row>
   </sheetData>
